--- a/doc/ue_FCpuProfilerTrace.xlsx
+++ b/doc/ue_FCpuProfilerTrace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C637F9B-B055-4407-BE0C-45654C7BD61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15D9305-4CE9-48D7-958C-00EAE480532F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原理" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="源码分析2" sheetId="3" r:id="rId3"/>
     <sheet name="UE_TRACE_LOG" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="237">
   <si>
     <t>FString DataStr = FString::Printf(TEXT("DeleteFile %s"), Filename);</t>
   </si>
@@ -605,6 +606,166 @@
   <si>
     <t>SCOPE_CYCLE_COUNTER(STAT_VVMExec);</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意这个名字，是在插入的先记录得了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecId = OutputEventType(NameCopy);</t>
+  </si>
+  <si>
+    <t>uint32 FCpuProfilerTrace::OutputEventType(const ANSICHAR* Name)</t>
+  </si>
+  <si>
+    <t>uint32 SpecId = FCpuProfilerTraceInternal::GetNextSpecId();</t>
+  </si>
+  <si>
+    <t>uint16 NameSize = (uint16)(strlen(Name) + 1);</t>
+  </si>
+  <si>
+    <t>UE_TRACE_LOG(CpuProfiler, EventSpec, CpuChannel, NameSize)</t>
+  </si>
+  <si>
+    <t>&lt;&lt; EventSpec.Id(SpecId)</t>
+  </si>
+  <si>
+    <t>&lt;&lt; EventSpec.CharSize(uint8(1))</t>
+  </si>
+  <si>
+    <t>&lt;&lt; EventSpec.Attachment(Name, NameSize);</t>
+  </si>
+  <si>
+    <t>return SpecId;</t>
+  </si>
+  <si>
+    <t>namespace Trace {</t>
+  </si>
+  <si>
+    <t>namespace Private {</t>
+  </si>
+  <si>
+    <t>////////////////////////////////////////////////////////////////////////////////</t>
+  </si>
+  <si>
+    <t>struct FEventInfo</t>
+  </si>
+  <si>
+    <t>Flag_None</t>
+  </si>
+  <si>
+    <t>= 0,</t>
+  </si>
+  <si>
+    <t>Flag_Important</t>
+  </si>
+  <si>
+    <t>= 1 &lt;&lt; 0,</t>
+  </si>
+  <si>
+    <t>Flag_MaybeHasAux</t>
+  </si>
+  <si>
+    <t>= 1 &lt;&lt; 1,</t>
+  </si>
+  <si>
+    <t>Flag_NoSync</t>
+  </si>
+  <si>
+    <t>= 1 &lt;&lt; 2,</t>
+  </si>
+  <si>
+    <t>FLiteralName</t>
+  </si>
+  <si>
+    <t>LoggerName;</t>
+  </si>
+  <si>
+    <t>EventName;</t>
+  </si>
+  <si>
+    <t>const FFieldDesc*</t>
+  </si>
+  <si>
+    <t>Fields;</t>
+  </si>
+  <si>
+    <t>FieldCount;</t>
+  </si>
+  <si>
+    <t>Flags;</t>
+  </si>
+  <si>
+    <t>class FEventNode</t>
+  </si>
+  <si>
+    <t>public:</t>
+  </si>
+  <si>
+    <t>struct FIter</t>
+  </si>
+  <si>
+    <t>const FEventNode*</t>
+  </si>
+  <si>
+    <t>GetNext();</t>
+  </si>
+  <si>
+    <t>void*</t>
+  </si>
+  <si>
+    <t>Inner;</t>
+  </si>
+  <si>
+    <t>static FIter</t>
+  </si>
+  <si>
+    <t>ReadNew();</t>
+  </si>
+  <si>
+    <t>TRACELOG_API uint32</t>
+  </si>
+  <si>
+    <t>Initialize(const FEventInfo* InInfo);</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t>Describe() const;</t>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>GetUid() const { return Uid; }</t>
+  </si>
+  <si>
+    <t>private:</t>
+  </si>
+  <si>
+    <t>FEventNode*</t>
+  </si>
+  <si>
+    <t>Next;</t>
+  </si>
+  <si>
+    <t>const FEventInfo*</t>
+  </si>
+  <si>
+    <t>Info;</t>
+  </si>
+  <si>
+    <t>Uid;</t>
+  </si>
+  <si>
+    <t>} // namespace Private</t>
+  </si>
+  <si>
+    <t>} // namespace Trace</t>
+  </si>
+  <si>
+    <t>#endif // UE_TRACE_ENABLED</t>
   </si>
 </sst>
 </file>
@@ -941,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1108,7 +1269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A492E5-874F-4496-93A0-A4A52FC6669C}">
   <dimension ref="B3:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -1362,10 +1523,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40405C9B-1EBD-4153-93E1-956214D34B16}">
-  <dimension ref="B1:U69"/>
+  <dimension ref="B1:V69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="R65" sqref="R65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1725,7 +1886,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>44</v>
       </c>
@@ -1733,12 +1894,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="T50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>60</v>
       </c>
@@ -1746,7 +1907,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>33</v>
       </c>
@@ -1754,7 +1915,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
         <v>61</v>
       </c>
@@ -1762,85 +1923,124 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="R56" s="1">
+        <v>3</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="E57" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="S57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T59" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U61" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U62" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
         <v>69</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U63" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="V64" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" spans="3:22" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="V65" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" spans="3:22" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="V66" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="3:22" x14ac:dyDescent="0.2">
       <c r="E67" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="U67" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="68" spans="3:22" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="T68" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
         <v>38</v>
       </c>
@@ -2196,4 +2396,269 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D052AE-C874-4E22-9CE4-BE784D68A791}">
+  <dimension ref="B6:H51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>204</v>
+      </c>
+      <c r="G17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>206</v>
+      </c>
+      <c r="F20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>206</v>
+      </c>
+      <c r="F21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>216</v>
+      </c>
+      <c r="E33" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>218</v>
+      </c>
+      <c r="H34" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>220</v>
+      </c>
+      <c r="F37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>222</v>
+      </c>
+      <c r="E38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H39" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>226</v>
+      </c>
+      <c r="H40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>229</v>
+      </c>
+      <c r="G43" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>231</v>
+      </c>
+      <c r="E44" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>226</v>
+      </c>
+      <c r="H45" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_FCpuProfilerTrace.xlsx
+++ b/doc/ue_FCpuProfilerTrace.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15D9305-4CE9-48D7-958C-00EAE480532F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C477CFF4-E00E-4F37-86F4-C4C5E217EFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原理" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="UE_TRACE_LOG" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="Insights显示" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="253">
   <si>
     <t>FString DataStr = FString::Printf(TEXT("DeleteFile %s"), Filename);</t>
   </si>
@@ -766,6 +767,59 @@
   </si>
   <si>
     <t>#endif // UE_TRACE_ENABLED</t>
+  </si>
+  <si>
+    <t>UE_TRACE_EVENT_BEGIN(CpuProfiler, EndThread, NoSync)</t>
+  </si>
+  <si>
+    <t>UE_TRACE_EVENT_FIELD(uint64, Cycle) // added in UE 5.4</t>
+  </si>
+  <si>
+    <t>UE_TRACE_EVENT_BEGIN(CpuProfiler, EventBatchV2, NoSync)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoSync会导致insights显示不对，所以可以修改为Important</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE_TRACE_EVENT_BEGIN(CpuProfiler, EventBatch, NoSync)</t>
+  </si>
+  <si>
+    <t>UE_TRACE_EVENT_BEGIN(CpuProfiler, EndCapture, Important)</t>
+  </si>
+  <si>
+    <t>inline void FLogScope::Enter(uint32 Uid, uint32 Size)</t>
+  </si>
+  <si>
+    <t>EnterPrelude&lt;FEventHeaderSync&gt;(Size);</t>
+  </si>
+  <si>
+    <t>uint16 Uid16 = uint16(Uid) | int32(EKnownEventUids::Flag_TwoByteUid);</t>
+  </si>
+  <si>
+    <t>uint32 Serial = uint32(AtomicAddRelaxed(&amp;GLogSerial, 1u));</t>
+  </si>
+  <si>
+    <t>// Event header FEventHeaderSync</t>
+  </si>
+  <si>
+    <t>memcpy(Ptr - 3, &amp;Serial, sizeof(Serial)); /* FEventHeaderSync::SerialHigh,SerialLow */</t>
+  </si>
+  <si>
+    <t>memcpy(Ptr - 5, &amp;Uid16,  sizeof(Uid16));  /* FEventHeaderSync::Uid */</t>
+  </si>
+  <si>
+    <t>本质上就是每个EVENT多几个BYTE，然后写入一个原子INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2402,7 +2456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D052AE-C874-4E22-9CE4-BE784D68A791}">
   <dimension ref="B6:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
@@ -2661,4 +2715,135 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB413FA-B06B-4FD5-91E5-61858F06D551}">
+  <dimension ref="A2:L23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>237</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>244</v>
+      </c>
+      <c r="L19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>